--- a/documentation/presentation_plan.xlsx
+++ b/documentation/presentation_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\corsi\5 anno\rob2\R-C2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18186D3-B5EF-4E8A-A611-5D853FA10B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D35F58-431C-420C-B286-441F1CF16410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6828" yWindow="1704" windowWidth="12540" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6828" yWindow="1596" windowWidth="12540" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -104,12 +104,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -124,10 +148,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,7 +439,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,9 +467,10 @@
       <c r="B2">
         <v>2</v>
       </c>
+      <c r="C2" s="3"/>
       <c r="D2">
         <f>SUM(B2:B13)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -451,6 +480,7 @@
       <c r="B3">
         <v>3</v>
       </c>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -459,6 +489,7 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -467,6 +498,7 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -475,6 +507,7 @@
       <c r="B6">
         <v>3</v>
       </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -483,6 +516,7 @@
       <c r="B7">
         <v>8</v>
       </c>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -491,6 +525,7 @@
       <c r="B8">
         <v>5</v>
       </c>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -499,6 +534,7 @@
       <c r="B9">
         <v>5</v>
       </c>
+      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -507,6 +543,7 @@
       <c r="B10">
         <v>5</v>
       </c>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -515,14 +552,16 @@
       <c r="B11">
         <v>5</v>
       </c>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/documentation/presentation_plan.xlsx
+++ b/documentation/presentation_plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\corsi\5 anno\rob2\R-C2\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D35F58-431C-420C-B286-441F1CF16410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D80E2A3-130B-4DB9-AE1C-DF365F9C1E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6828" yWindow="1596" windowWidth="12540" windowHeight="11364" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>ARG</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>conclusions</t>
+  </si>
+  <si>
+    <t>PiPpo</t>
+  </si>
+  <si>
+    <t>Giulia</t>
+  </si>
+  <si>
+    <t>Edo</t>
+  </si>
+  <si>
+    <t>Crissss</t>
   </si>
 </sst>
 </file>
@@ -104,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,6 +147,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -148,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -156,6 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,31 +455,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1"/>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -468,12 +489,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2">
+      <c r="D2" s="3"/>
+      <c r="E2">
         <f>SUM(B2:B13)</f>
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -481,8 +503,9 @@
         <v>3</v>
       </c>
       <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -490,8 +513,9 @@
         <v>3</v>
       </c>
       <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -499,8 +523,9 @@
         <v>4</v>
       </c>
       <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -508,8 +533,9 @@
         <v>3</v>
       </c>
       <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -517,8 +543,9 @@
         <v>8</v>
       </c>
       <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -526,8 +553,9 @@
         <v>5</v>
       </c>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -535,8 +563,9 @@
         <v>5</v>
       </c>
       <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -544,8 +573,9 @@
         <v>5</v>
       </c>
       <c r="C10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -553,8 +583,9 @@
         <v>5</v>
       </c>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -562,6 +593,35 @@
         <v>5</v>
       </c>
       <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
